--- a/wzrv/expdata/1020.xlsx
+++ b/wzrv/expdata/1020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2630B909-DA08-C04C-BFA6-EE5FB31D773D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96386BD0-FEB8-0F45-8273-94AB91284A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>diff</t>
   </si>
   <si>
-    <t>W+</t>
-  </si>
-  <si>
     <t>norm_c</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>PHENIX(e)</t>
+  </si>
+  <si>
+    <t>W+,Z</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,10 +453,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -483,21 +483,21 @@
         <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>510</v>
@@ -512,7 +512,7 @@
         <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1">
         <v>-0.35</v>
@@ -536,10 +536,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>510</v>
@@ -554,7 +554,7 @@
         <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1">
         <v>-0.35</v>
@@ -578,10 +578,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>510</v>
@@ -596,7 +596,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1">
         <v>-0.38</v>

--- a/wzrv/expdata/1020.xlsx
+++ b/wzrv/expdata/1020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96386BD0-FEB8-0F45-8273-94AB91284A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D75FAA-EFF9-9F44-B31E-69DC0F081DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34020" yWindow="2560" windowWidth="30720" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>cms</t>
   </si>
@@ -85,14 +85,25 @@
   </si>
   <si>
     <t>W+,Z</t>
+  </si>
+  <si>
+    <t>W-,Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -120,9 +131,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -439,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,43 +466,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -503,7 +517,7 @@
         <v>510</v>
       </c>
       <c r="D2" s="1">
-        <v>-0.17</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>30</v>
@@ -518,7 +532,7 @@
         <v>-0.35</v>
       </c>
       <c r="I2" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="J2" s="1">
         <v>0.01</v>
@@ -530,7 +544,7 @@
         <v>7</v>
       </c>
       <c r="M2" s="1">
-        <f>ABS(0.035*H2)</f>
+        <f t="shared" ref="M2" si="0">ABS(0.035*H2)</f>
         <v>1.225E-2</v>
       </c>
     </row>
@@ -554,16 +568,16 @@
         <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1">
-        <v>-0.35</v>
+        <v>0.17</v>
       </c>
       <c r="I3" s="1">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="J3" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>8</v>
@@ -572,50 +586,8 @@
         <v>7</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M4" si="0">ABS(0.035*H3)</f>
-        <v>1.225E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1">
-        <v>510</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="E4" s="1">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1">
-        <v>50</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1">
-        <v>-0.38</v>
-      </c>
-      <c r="I4" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3300000000000001E-2</v>
+        <f>ABS(0.035*H3)</f>
+        <v>5.9500000000000013E-3</v>
       </c>
     </row>
   </sheetData>

--- a/wzrv/expdata/1020.xlsx
+++ b/wzrv/expdata/1020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D75FAA-EFF9-9F44-B31E-69DC0F081DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A5965C-6B1E-074C-A2E7-E7B0D2F4D81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34020" yWindow="2560" windowWidth="30720" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>cms</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>pt_min</t>
-  </si>
-  <si>
-    <t>pt_max</t>
   </si>
   <si>
     <t>boson</t>
@@ -453,30 +450,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -485,33 +482,30 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>510</v>
@@ -522,38 +516,35 @@
       <c r="E2" s="1">
         <v>30</v>
       </c>
-      <c r="F2" s="1">
-        <v>50</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-0.35</v>
       </c>
       <c r="H2" s="1">
-        <v>-0.35</v>
+        <v>0.04</v>
       </c>
       <c r="I2" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="J2" s="1">
         <v>0.01</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="1">
-        <f t="shared" ref="M2" si="0">ABS(0.035*H2)</f>
+        <v>6</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" ref="L2" si="0">ABS(0.035*G2)</f>
         <v>1.225E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>510</v>
@@ -564,29 +555,26 @@
       <c r="E3" s="1">
         <v>30</v>
       </c>
-      <c r="F3" s="1">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.17</v>
       </c>
       <c r="H3" s="1">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="I3" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="J3" s="1">
         <v>0.02</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="K3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="1">
-        <f>ABS(0.035*H3)</f>
+        <v>6</v>
+      </c>
+      <c r="L3" s="1">
+        <f>ABS(0.035*G3)</f>
         <v>5.9500000000000013E-3</v>
       </c>
     </row>

--- a/wzrv/expdata/1020.xlsx
+++ b/wzrv/expdata/1020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A5965C-6B1E-074C-A2E7-E7B0D2F4D81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFC289C-AD16-2746-80E7-BD9AB1567093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34020" yWindow="2560" windowWidth="30720" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>cms</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>W-,Z</t>
+  </si>
+  <si>
+    <t>eta_min</t>
+  </si>
+  <si>
+    <t>eta_max</t>
   </si>
 </sst>
 </file>
@@ -450,19 +456,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -473,34 +479,37 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -511,35 +520,38 @@
         <v>510</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>-0.17</v>
       </c>
       <c r="E2" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="F2" s="1">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>-0.35</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>0.04</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>0.01</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="1">
-        <f t="shared" ref="L2" si="0">ABS(0.035*G2)</f>
+      <c r="M2" s="1">
+        <f t="shared" ref="M2" si="0">ABS(0.035*H2)</f>
         <v>1.225E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -550,31 +562,34 @@
         <v>510</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>-0.17</v>
       </c>
       <c r="E3" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="F3" s="1">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.17</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>0.08</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>0.02</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="1">
-        <f>ABS(0.035*G3)</f>
+      <c r="M3" s="1">
+        <f>ABS(0.035*H3)</f>
         <v>5.9500000000000013E-3</v>
       </c>
     </row>
